--- a/1) Ноябрь/911/911 Разработка моб приложений_ноябрь.xlsx
+++ b/1) Ноябрь/911/911 Разработка моб приложений_ноябрь.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\1) Ноябрь\911\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53070F21-7841-4460-B180-4895F2B68EB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6727319F-FC4A-4708-8865-031D62456852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4005" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="53">
   <si>
     <t>Александров Никита</t>
   </si>
@@ -162,15 +162,6 @@
     <t>Оценки</t>
   </si>
   <si>
-    <t>Практика 3</t>
-  </si>
-  <si>
-    <t>Практика 4</t>
-  </si>
-  <si>
-    <t>Практика 5</t>
-  </si>
-  <si>
     <t>Лекция 1.1</t>
   </si>
   <si>
@@ -190,6 +181,15 @@
   </si>
   <si>
     <t>Практика 1.2</t>
+  </si>
+  <si>
+    <t>Практика 1.3</t>
+  </si>
+  <si>
+    <t>Практика 2.4</t>
+  </si>
+  <si>
+    <t>Практика 2.5</t>
   </si>
 </sst>
 </file>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,15 @@
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="19" max="20" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1524,55 +1532,55 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
         <v>46</v>
       </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" t="s">
         <v>51</v>
       </c>
-      <c r="J33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" t="s">
-        <v>43</v>
-      </c>
-      <c r="M33" t="s">
-        <v>44</v>
-      </c>
       <c r="N33" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="O33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q33" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="R33" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -1580,13 +1588,16 @@
         <v>42</v>
       </c>
       <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
         <v>49</v>
       </c>
-      <c r="I34" t="s">
-        <v>52</v>
-      </c>
       <c r="L34" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
